--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nrg2-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nrg2-Erbb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Nrg2</t>
+  </si>
+  <si>
+    <t>Erbb3</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Nrg2</t>
-  </si>
-  <si>
-    <t>Erbb3</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.1858566666666667</v>
+      </c>
+      <c r="H2">
+        <v>0.5575700000000001</v>
+      </c>
+      <c r="I2">
+        <v>0.5758741601813647</v>
+      </c>
+      <c r="J2">
+        <v>0.5758741601813647</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.03199733333333333</v>
-      </c>
-      <c r="H2">
-        <v>0.09599199999999999</v>
-      </c>
-      <c r="I2">
-        <v>0.02642384069500492</v>
-      </c>
-      <c r="J2">
-        <v>0.02642384069500492</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.02516733333333333</v>
+        <v>0.1698666666666667</v>
       </c>
       <c r="N2">
-        <v>0.075502</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="O2">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="P2">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="Q2">
-        <v>0.0008052875537777777</v>
+        <v>0.03157085244444446</v>
       </c>
       <c r="R2">
-        <v>0.007247587983999999</v>
+        <v>0.2841376720000001</v>
       </c>
       <c r="S2">
-        <v>0.0001291651381550813</v>
+        <v>0.0254746964858772</v>
       </c>
       <c r="T2">
-        <v>0.0001291651381550813</v>
+        <v>0.0254746964858772</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03199733333333333</v>
+        <v>0.1858566666666667</v>
       </c>
       <c r="H3">
-        <v>0.09599199999999999</v>
+        <v>0.5575700000000001</v>
       </c>
       <c r="I3">
-        <v>0.02642384069500492</v>
+        <v>0.5758741601813647</v>
       </c>
       <c r="J3">
-        <v>0.02642384069500492</v>
+        <v>0.5758741601813647</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.146943</v>
       </c>
       <c r="O3">
-        <v>0.07425620492571647</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="P3">
-        <v>0.07425620492571648</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="Q3">
-        <v>0.01223303916177778</v>
+        <v>0.07105566761222223</v>
       </c>
       <c r="R3">
-        <v>0.110097352456</v>
+        <v>0.6395010085100001</v>
       </c>
       <c r="S3">
-        <v>0.001962134129572772</v>
+        <v>0.05733521352355072</v>
       </c>
       <c r="T3">
-        <v>0.001962134129572772</v>
+        <v>0.05733521352355072</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.1858566666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.5575700000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.5758741601813647</v>
+      </c>
+      <c r="J4">
+        <v>0.5758741601813647</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.03199733333333333</v>
-      </c>
-      <c r="H4">
-        <v>0.09599199999999999</v>
-      </c>
-      <c r="I4">
-        <v>0.02642384069500492</v>
-      </c>
-      <c r="J4">
-        <v>0.02642384069500492</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.7297406666666667</v>
+        <v>0.655462</v>
       </c>
       <c r="N4">
-        <v>2.189222</v>
+        <v>1.966386</v>
       </c>
       <c r="O4">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="P4">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="Q4">
-        <v>0.02334975535822222</v>
+        <v>0.1218219824466667</v>
       </c>
       <c r="R4">
-        <v>0.210147798224</v>
+        <v>1.09639784202</v>
       </c>
       <c r="S4">
-        <v>0.003745214194089473</v>
+        <v>0.09829883540831655</v>
       </c>
       <c r="T4">
-        <v>0.003745214194089473</v>
+        <v>0.09829883540831655</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.03199733333333333</v>
+        <v>0.1858566666666667</v>
       </c>
       <c r="H5">
-        <v>0.09599199999999999</v>
+        <v>0.5575700000000001</v>
       </c>
       <c r="I5">
-        <v>0.02642384069500492</v>
+        <v>0.5758741601813647</v>
       </c>
       <c r="J5">
-        <v>0.02642384069500492</v>
+        <v>0.5758741601813647</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.257809</v>
+        <v>1.828665666666667</v>
       </c>
       <c r="N5">
-        <v>9.773427</v>
+        <v>5.485997</v>
       </c>
       <c r="O5">
-        <v>0.6327582086804054</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="P5">
-        <v>0.6327582086804056</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="Q5">
-        <v>0.1042412005093333</v>
+        <v>0.3398697052544445</v>
       </c>
       <c r="R5">
-        <v>0.9381708045839999</v>
+        <v>3.058827347290001</v>
       </c>
       <c r="S5">
-        <v>0.01671990210462771</v>
+        <v>0.2742427560781649</v>
       </c>
       <c r="T5">
-        <v>0.01671990210462772</v>
+        <v>0.2742427560781649</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.03199733333333333</v>
+        <v>0.1858566666666667</v>
       </c>
       <c r="H6">
-        <v>0.09599199999999999</v>
+        <v>0.5575700000000001</v>
       </c>
       <c r="I6">
-        <v>0.02642384069500492</v>
+        <v>0.5758741601813647</v>
       </c>
       <c r="J6">
-        <v>0.02642384069500492</v>
+        <v>0.5758741601813647</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1514643333333333</v>
+        <v>0.07852066666666667</v>
       </c>
       <c r="N6">
-        <v>0.454393</v>
+        <v>0.235562</v>
       </c>
       <c r="O6">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="P6">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="Q6">
-        <v>0.004846454761777777</v>
+        <v>0.01459358937111111</v>
       </c>
       <c r="R6">
-        <v>0.043618092856</v>
+        <v>0.13134230434</v>
       </c>
       <c r="S6">
-        <v>0.0007773533763569423</v>
+        <v>0.01177564845684106</v>
       </c>
       <c r="T6">
-        <v>0.0007773533763569423</v>
+        <v>0.01177564845684106</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.03199733333333333</v>
+        <v>0.1858566666666667</v>
       </c>
       <c r="H7">
-        <v>0.09599199999999999</v>
+        <v>0.5575700000000001</v>
       </c>
       <c r="I7">
-        <v>0.02642384069500492</v>
+        <v>0.5758741601813647</v>
       </c>
       <c r="J7">
-        <v>0.02642384069500492</v>
+        <v>0.5758741601813647</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6020886666666666</v>
+        <v>0.7251310000000001</v>
       </c>
       <c r="N7">
-        <v>1.806266</v>
+        <v>2.175393</v>
       </c>
       <c r="O7">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="P7">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="Q7">
-        <v>0.01926523176355555</v>
+        <v>0.1347704305566667</v>
       </c>
       <c r="R7">
-        <v>0.173387085872</v>
+        <v>1.21293387501</v>
       </c>
       <c r="S7">
-        <v>0.003090071752202936</v>
+        <v>0.1087470102286143</v>
       </c>
       <c r="T7">
-        <v>0.003090071752202936</v>
+        <v>0.1087470102286143</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.5432236666666667</v>
+        <v>0.01872866666666667</v>
       </c>
       <c r="H8">
-        <v>1.629671</v>
+        <v>0.056186</v>
       </c>
       <c r="I8">
-        <v>0.4486016218983808</v>
+        <v>0.05803049942419814</v>
       </c>
       <c r="J8">
-        <v>0.4486016218983808</v>
+        <v>0.05803049942419813</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.02516733333333333</v>
+        <v>0.1698666666666667</v>
       </c>
       <c r="N8">
-        <v>0.075502</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="O8">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="P8">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="Q8">
-        <v>0.01367149109355555</v>
+        <v>0.003181376177777778</v>
       </c>
       <c r="R8">
-        <v>0.123043419842</v>
+        <v>0.0286323856</v>
       </c>
       <c r="S8">
-        <v>0.002192856486606483</v>
+        <v>0.002567070137840085</v>
       </c>
       <c r="T8">
-        <v>0.002192856486606483</v>
+        <v>0.002567070137840085</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.5432236666666667</v>
+        <v>0.01872866666666667</v>
       </c>
       <c r="H9">
-        <v>1.629671</v>
+        <v>0.056186</v>
       </c>
       <c r="I9">
-        <v>0.4486016218983808</v>
+        <v>0.05803049942419814</v>
       </c>
       <c r="J9">
-        <v>0.4486016218983808</v>
+        <v>0.05803049942419813</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>1.146943</v>
       </c>
       <c r="O9">
-        <v>0.07425620492571647</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="P9">
-        <v>0.07425620492571648</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="Q9">
-        <v>0.2076821939725556</v>
+        <v>0.00716023771088889</v>
       </c>
       <c r="R9">
-        <v>1.869139745753</v>
+        <v>0.064442139398</v>
       </c>
       <c r="S9">
-        <v>0.03331145396569495</v>
+        <v>0.005777635645809891</v>
       </c>
       <c r="T9">
-        <v>0.03331145396569495</v>
+        <v>0.00577763564580989</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.5432236666666667</v>
+        <v>0.01872866666666667</v>
       </c>
       <c r="H10">
-        <v>1.629671</v>
+        <v>0.056186</v>
       </c>
       <c r="I10">
-        <v>0.4486016218983808</v>
+        <v>0.05803049942419814</v>
       </c>
       <c r="J10">
-        <v>0.4486016218983808</v>
+        <v>0.05803049942419813</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.7297406666666667</v>
+        <v>0.655462</v>
       </c>
       <c r="N10">
-        <v>2.189222</v>
+        <v>1.966386</v>
       </c>
       <c r="O10">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="P10">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="Q10">
-        <v>0.3964124006624445</v>
+        <v>0.01227592931066667</v>
       </c>
       <c r="R10">
-        <v>3.567711605962</v>
+        <v>0.110483363796</v>
       </c>
       <c r="S10">
-        <v>0.06358307943261925</v>
+        <v>0.009905515659471767</v>
       </c>
       <c r="T10">
-        <v>0.06358307943261925</v>
+        <v>0.009905515659471764</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.5432236666666667</v>
+        <v>0.01872866666666667</v>
       </c>
       <c r="H11">
-        <v>1.629671</v>
+        <v>0.056186</v>
       </c>
       <c r="I11">
-        <v>0.4486016218983808</v>
+        <v>0.05803049942419814</v>
       </c>
       <c r="J11">
-        <v>0.4486016218983808</v>
+        <v>0.05803049942419813</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.257809</v>
+        <v>1.828665666666667</v>
       </c>
       <c r="N11">
-        <v>9.773427</v>
+        <v>5.485997</v>
       </c>
       <c r="O11">
-        <v>0.6327582086804054</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="P11">
-        <v>0.6327582086804056</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="Q11">
-        <v>1.769718950279667</v>
+        <v>0.03424846971577778</v>
       </c>
       <c r="R11">
-        <v>15.927470552517</v>
+        <v>0.308236227442</v>
       </c>
       <c r="S11">
-        <v>0.283856358683544</v>
+        <v>0.02763528075938048</v>
       </c>
       <c r="T11">
-        <v>0.283856358683544</v>
+        <v>0.02763528075938047</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.5432236666666667</v>
+        <v>0.01872866666666667</v>
       </c>
       <c r="H12">
-        <v>1.629671</v>
+        <v>0.056186</v>
       </c>
       <c r="I12">
-        <v>0.4486016218983808</v>
+        <v>0.05803049942419814</v>
       </c>
       <c r="J12">
-        <v>0.4486016218983808</v>
+        <v>0.05803049942419813</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.1514643333333333</v>
+        <v>0.07852066666666667</v>
       </c>
       <c r="N12">
-        <v>0.454393</v>
+        <v>0.235562</v>
       </c>
       <c r="O12">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="P12">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="Q12">
-        <v>0.08227901052255555</v>
+        <v>0.001470587392444445</v>
       </c>
       <c r="R12">
-        <v>0.740511094703</v>
+        <v>0.013235286532</v>
       </c>
       <c r="S12">
-        <v>0.01319724825194802</v>
+        <v>0.001186625148763513</v>
       </c>
       <c r="T12">
-        <v>0.01319724825194802</v>
+        <v>0.001186625148763512</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.5432236666666667</v>
+        <v>0.01872866666666667</v>
       </c>
       <c r="H13">
-        <v>1.629671</v>
+        <v>0.056186</v>
       </c>
       <c r="I13">
-        <v>0.4486016218983808</v>
+        <v>0.05803049942419814</v>
       </c>
       <c r="J13">
-        <v>0.4486016218983808</v>
+        <v>0.05803049942419813</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6020886666666666</v>
+        <v>0.7251310000000001</v>
       </c>
       <c r="N13">
-        <v>1.806266</v>
+        <v>2.175393</v>
       </c>
       <c r="O13">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="P13">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="Q13">
-        <v>0.327068813165111</v>
+        <v>0.01358073678866667</v>
       </c>
       <c r="R13">
-        <v>2.943619318486</v>
+        <v>0.122226631098</v>
       </c>
       <c r="S13">
-        <v>0.05246062507796807</v>
+        <v>0.01095837207293241</v>
       </c>
       <c r="T13">
-        <v>0.05246062507796808</v>
+        <v>0.01095837207293241</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05874666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.17624</v>
+      </c>
+      <c r="I14">
+        <v>0.1820256864436101</v>
+      </c>
+      <c r="J14">
+        <v>0.1820256864436101</v>
+      </c>
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="F14">
+      <c r="L14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G14">
-        <v>0.03803</v>
-      </c>
-      <c r="H14">
-        <v>0.11409</v>
-      </c>
-      <c r="I14">
-        <v>0.03140570031766306</v>
-      </c>
-      <c r="J14">
-        <v>0.03140570031766305</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M14">
-        <v>0.02516733333333333</v>
+        <v>0.1698666666666667</v>
       </c>
       <c r="N14">
-        <v>0.075502</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="O14">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="P14">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="Q14">
-        <v>0.0009571136866666667</v>
+        <v>0.009979100444444446</v>
       </c>
       <c r="R14">
-        <v>0.008614023179999999</v>
+        <v>0.08981190400000001</v>
       </c>
       <c r="S14">
-        <v>0.0001535174870000961</v>
+        <v>0.008052191668617387</v>
       </c>
       <c r="T14">
-        <v>0.0001535174870000961</v>
+        <v>0.008052191668617387</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.03803</v>
+        <v>0.05874666666666667</v>
       </c>
       <c r="H15">
-        <v>0.11409</v>
+        <v>0.17624</v>
       </c>
       <c r="I15">
-        <v>0.03140570031766306</v>
+        <v>0.1820256864436101</v>
       </c>
       <c r="J15">
-        <v>0.03140570031766305</v>
+        <v>0.1820256864436101</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.146943</v>
       </c>
       <c r="O15">
-        <v>0.07425620492571647</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="P15">
-        <v>0.07425620492571648</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="Q15">
-        <v>0.01453941409666667</v>
+        <v>0.02245969270222222</v>
       </c>
       <c r="R15">
-        <v>0.13085472687</v>
+        <v>0.20213723432</v>
       </c>
       <c r="S15">
-        <v>0.002332068118624027</v>
+        <v>0.01812285099878146</v>
       </c>
       <c r="T15">
-        <v>0.002332068118624026</v>
+        <v>0.01812285099878146</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05874666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.17624</v>
+      </c>
+      <c r="I16">
+        <v>0.1820256864436101</v>
+      </c>
+      <c r="J16">
+        <v>0.1820256864436101</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="L16">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G16">
-        <v>0.03803</v>
-      </c>
-      <c r="H16">
-        <v>0.11409</v>
-      </c>
-      <c r="I16">
-        <v>0.03140570031766306</v>
-      </c>
-      <c r="J16">
-        <v>0.03140570031766305</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
       <c r="M16">
-        <v>0.7297406666666667</v>
+        <v>0.655462</v>
       </c>
       <c r="N16">
-        <v>2.189222</v>
+        <v>1.966386</v>
       </c>
       <c r="O16">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="P16">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="Q16">
-        <v>0.02775203755333333</v>
+        <v>0.03850620762666667</v>
       </c>
       <c r="R16">
-        <v>0.24976833798</v>
+        <v>0.34655586864</v>
       </c>
       <c r="S16">
-        <v>0.004451323937449663</v>
+        <v>0.03107087316814338</v>
       </c>
       <c r="T16">
-        <v>0.004451323937449662</v>
+        <v>0.03107087316814338</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.03803</v>
+        <v>0.05874666666666667</v>
       </c>
       <c r="H17">
-        <v>0.11409</v>
+        <v>0.17624</v>
       </c>
       <c r="I17">
-        <v>0.03140570031766306</v>
+        <v>0.1820256864436101</v>
       </c>
       <c r="J17">
-        <v>0.03140570031766305</v>
+        <v>0.1820256864436101</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.257809</v>
+        <v>1.828665666666667</v>
       </c>
       <c r="N17">
-        <v>9.773427</v>
+        <v>5.485997</v>
       </c>
       <c r="O17">
-        <v>0.6327582086804054</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="P17">
-        <v>0.6327582086804056</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="Q17">
-        <v>0.12389447627</v>
+        <v>0.1074280123644445</v>
       </c>
       <c r="R17">
-        <v>1.11505028643</v>
+        <v>0.96685211128</v>
       </c>
       <c r="S17">
-        <v>0.01987221467535812</v>
+        <v>0.08668426086628724</v>
       </c>
       <c r="T17">
-        <v>0.01987221467535812</v>
+        <v>0.08668426086628722</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.03803</v>
+        <v>0.05874666666666667</v>
       </c>
       <c r="H18">
-        <v>0.11409</v>
+        <v>0.17624</v>
       </c>
       <c r="I18">
-        <v>0.03140570031766306</v>
+        <v>0.1820256864436101</v>
       </c>
       <c r="J18">
-        <v>0.03140570031766305</v>
+        <v>0.1820256864436101</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.1514643333333333</v>
+        <v>0.07852066666666667</v>
       </c>
       <c r="N18">
-        <v>0.454393</v>
+        <v>0.235562</v>
       </c>
       <c r="O18">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="P18">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="Q18">
-        <v>0.005760188596666667</v>
+        <v>0.004612827431111111</v>
       </c>
       <c r="R18">
-        <v>0.05184169737</v>
+        <v>0.04151544688</v>
       </c>
       <c r="S18">
-        <v>0.0009239128959555334</v>
+        <v>0.003722116118215951</v>
       </c>
       <c r="T18">
-        <v>0.0009239128959555332</v>
+        <v>0.003722116118215951</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.03803</v>
+        <v>0.05874666666666667</v>
       </c>
       <c r="H19">
-        <v>0.11409</v>
+        <v>0.17624</v>
       </c>
       <c r="I19">
-        <v>0.03140570031766306</v>
+        <v>0.1820256864436101</v>
       </c>
       <c r="J19">
-        <v>0.03140570031766305</v>
+        <v>0.1820256864436101</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.6020886666666666</v>
+        <v>0.7251310000000001</v>
       </c>
       <c r="N19">
-        <v>1.806266</v>
+        <v>2.175393</v>
       </c>
       <c r="O19">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="P19">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="Q19">
-        <v>0.02289743199333333</v>
+        <v>0.04259902914666668</v>
       </c>
       <c r="R19">
-        <v>0.20607688794</v>
+        <v>0.38339126232</v>
       </c>
       <c r="S19">
-        <v>0.003672663203275616</v>
+        <v>0.03437339362356472</v>
       </c>
       <c r="T19">
-        <v>0.003672663203275617</v>
+        <v>0.03437339362356472</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,14 +1644,14 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
       <c r="E20">
         <v>1</v>
       </c>
@@ -1659,46 +1659,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.05874666666666667</v>
+        <v>0.05940633333333333</v>
       </c>
       <c r="H20">
-        <v>0.17624</v>
+        <v>0.178219</v>
       </c>
       <c r="I20">
-        <v>0.04851381036010989</v>
+        <v>0.184069653950827</v>
       </c>
       <c r="J20">
-        <v>0.04851381036010988</v>
+        <v>0.184069653950827</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.02516733333333333</v>
+        <v>0.1698666666666667</v>
       </c>
       <c r="N20">
-        <v>0.075502</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="O20">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="P20">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="Q20">
-        <v>0.001478496942222222</v>
+        <v>0.01009115582222222</v>
       </c>
       <c r="R20">
-        <v>0.01330647248</v>
+        <v>0.0908204024</v>
       </c>
       <c r="S20">
-        <v>0.0002371454282487242</v>
+        <v>0.00814260977638063</v>
       </c>
       <c r="T20">
-        <v>0.0002371454282487242</v>
+        <v>0.008142609776380628</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1721,16 +1721,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.05874666666666667</v>
+        <v>0.05940633333333333</v>
       </c>
       <c r="H21">
-        <v>0.17624</v>
+        <v>0.178219</v>
       </c>
       <c r="I21">
-        <v>0.04851381036010989</v>
+        <v>0.184069653950827</v>
       </c>
       <c r="J21">
-        <v>0.04851381036010988</v>
+        <v>0.184069653950827</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.146943</v>
       </c>
       <c r="O21">
-        <v>0.07425620492571647</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="P21">
-        <v>0.07425620492571648</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="Q21">
-        <v>0.02245969270222222</v>
+        <v>0.02271189272411111</v>
       </c>
       <c r="R21">
-        <v>0.20213723432</v>
+        <v>0.204407034517</v>
       </c>
       <c r="S21">
-        <v>0.003602451443827667</v>
+        <v>0.01832635259959052</v>
       </c>
       <c r="T21">
-        <v>0.003602451443827667</v>
+        <v>0.01832635259959051</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,13 +1768,13 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1783,46 +1783,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.05874666666666667</v>
+        <v>0.05940633333333333</v>
       </c>
       <c r="H22">
-        <v>0.17624</v>
+        <v>0.178219</v>
       </c>
       <c r="I22">
-        <v>0.04851381036010989</v>
+        <v>0.184069653950827</v>
       </c>
       <c r="J22">
-        <v>0.04851381036010988</v>
+        <v>0.184069653950827</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.7297406666666667</v>
+        <v>0.655462</v>
       </c>
       <c r="N22">
-        <v>2.189222</v>
+        <v>1.966386</v>
       </c>
       <c r="O22">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="P22">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="Q22">
-        <v>0.04286983169777778</v>
+        <v>0.03893859405933333</v>
       </c>
       <c r="R22">
-        <v>0.38582848528</v>
+        <v>0.3504473465339999</v>
       </c>
       <c r="S22">
-        <v>0.00687616207148855</v>
+        <v>0.03141976818629905</v>
       </c>
       <c r="T22">
-        <v>0.006876162071488549</v>
+        <v>0.03141976818629905</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,13 +1830,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1845,16 +1845,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.05874666666666667</v>
+        <v>0.05940633333333333</v>
       </c>
       <c r="H23">
-        <v>0.17624</v>
+        <v>0.178219</v>
       </c>
       <c r="I23">
-        <v>0.04851381036010989</v>
+        <v>0.184069653950827</v>
       </c>
       <c r="J23">
-        <v>0.04851381036010988</v>
+        <v>0.184069653950827</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.257809</v>
+        <v>1.828665666666667</v>
       </c>
       <c r="N23">
-        <v>9.773427</v>
+        <v>5.485997</v>
       </c>
       <c r="O23">
-        <v>0.6327582086804054</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="P23">
-        <v>0.6327582086804056</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="Q23">
-        <v>0.1913854193866667</v>
+        <v>0.1086343221492222</v>
       </c>
       <c r="R23">
-        <v>1.72246877448</v>
+        <v>0.977708899343</v>
       </c>
       <c r="S23">
-        <v>0.03069751173972403</v>
+        <v>0.08765763894308241</v>
       </c>
       <c r="T23">
-        <v>0.03069751173972403</v>
+        <v>0.08765763894308241</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1907,46 +1907,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.05874666666666667</v>
+        <v>0.05940633333333333</v>
       </c>
       <c r="H24">
-        <v>0.17624</v>
+        <v>0.178219</v>
       </c>
       <c r="I24">
-        <v>0.04851381036010989</v>
+        <v>0.184069653950827</v>
       </c>
       <c r="J24">
-        <v>0.04851381036010988</v>
+        <v>0.184069653950827</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.1514643333333333</v>
+        <v>0.07852066666666667</v>
       </c>
       <c r="N24">
-        <v>0.454393</v>
+        <v>0.235562</v>
       </c>
       <c r="O24">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="P24">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="Q24">
-        <v>0.008898024702222222</v>
+        <v>0.004664624897555556</v>
       </c>
       <c r="R24">
-        <v>0.08008222232000001</v>
+        <v>0.041981624078</v>
       </c>
       <c r="S24">
-        <v>0.001427210174276477</v>
+        <v>0.003763911782071769</v>
       </c>
       <c r="T24">
-        <v>0.001427210174276476</v>
+        <v>0.003763911782071769</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1969,16 +1969,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.05874666666666667</v>
+        <v>0.05940633333333333</v>
       </c>
       <c r="H25">
-        <v>0.17624</v>
+        <v>0.178219</v>
       </c>
       <c r="I25">
-        <v>0.04851381036010989</v>
+        <v>0.184069653950827</v>
       </c>
       <c r="J25">
-        <v>0.04851381036010988</v>
+        <v>0.184069653950827</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.6020886666666666</v>
+        <v>0.7251310000000001</v>
       </c>
       <c r="N25">
-        <v>1.806266</v>
+        <v>2.175393</v>
       </c>
       <c r="O25">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="P25">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="Q25">
-        <v>0.03537070220444444</v>
+        <v>0.04307737389633334</v>
       </c>
       <c r="R25">
-        <v>0.31833631984</v>
+        <v>0.387696365067</v>
       </c>
       <c r="S25">
-        <v>0.005673329502544436</v>
+        <v>0.03475937266340264</v>
       </c>
       <c r="T25">
-        <v>0.005673329502544436</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.538929</v>
-      </c>
-      <c r="H26">
-        <v>1.616787</v>
-      </c>
-      <c r="I26">
-        <v>0.4450550267288412</v>
-      </c>
-      <c r="J26">
-        <v>0.4450550267288412</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.02516733333333333</v>
-      </c>
-      <c r="N26">
-        <v>0.075502</v>
-      </c>
-      <c r="O26">
-        <v>0.00488820454399342</v>
-      </c>
-      <c r="P26">
-        <v>0.00488820454399342</v>
-      </c>
-      <c r="Q26">
-        <v>0.013563405786</v>
-      </c>
-      <c r="R26">
-        <v>0.122070652074</v>
-      </c>
-      <c r="S26">
-        <v>0.002175520003983035</v>
-      </c>
-      <c r="T26">
-        <v>0.002175520003983035</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0.538929</v>
-      </c>
-      <c r="H27">
-        <v>1.616787</v>
-      </c>
-      <c r="I27">
-        <v>0.4450550267288412</v>
-      </c>
-      <c r="J27">
-        <v>0.4450550267288412</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0.3823143333333334</v>
-      </c>
-      <c r="N27">
-        <v>1.146943</v>
-      </c>
-      <c r="O27">
-        <v>0.07425620492571647</v>
-      </c>
-      <c r="P27">
-        <v>0.07425620492571648</v>
-      </c>
-      <c r="Q27">
-        <v>0.206040281349</v>
-      </c>
-      <c r="R27">
-        <v>1.854362532141</v>
-      </c>
-      <c r="S27">
-        <v>0.03304809726799705</v>
-      </c>
-      <c r="T27">
-        <v>0.03304809726799706</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0.538929</v>
-      </c>
-      <c r="H28">
-        <v>1.616787</v>
-      </c>
-      <c r="I28">
-        <v>0.4450550267288412</v>
-      </c>
-      <c r="J28">
-        <v>0.4450550267288412</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>0.7297406666666667</v>
-      </c>
-      <c r="N28">
-        <v>2.189222</v>
-      </c>
-      <c r="O28">
-        <v>0.1417361782232307</v>
-      </c>
-      <c r="P28">
-        <v>0.1417361782232307</v>
-      </c>
-      <c r="Q28">
-        <v>0.393278407746</v>
-      </c>
-      <c r="R28">
-        <v>3.539505669714</v>
-      </c>
-      <c r="S28">
-        <v>0.06308039858758373</v>
-      </c>
-      <c r="T28">
-        <v>0.06308039858758373</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0.538929</v>
-      </c>
-      <c r="H29">
-        <v>1.616787</v>
-      </c>
-      <c r="I29">
-        <v>0.4450550267288412</v>
-      </c>
-      <c r="J29">
-        <v>0.4450550267288412</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>3.257809</v>
-      </c>
-      <c r="N29">
-        <v>9.773427</v>
-      </c>
-      <c r="O29">
-        <v>0.6327582086804054</v>
-      </c>
-      <c r="P29">
-        <v>0.6327582086804056</v>
-      </c>
-      <c r="Q29">
-        <v>1.755727746561</v>
-      </c>
-      <c r="R29">
-        <v>15.801549719049</v>
-      </c>
-      <c r="S29">
-        <v>0.2816122214771515</v>
-      </c>
-      <c r="T29">
-        <v>0.2816122214771516</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0.538929</v>
-      </c>
-      <c r="H30">
-        <v>1.616787</v>
-      </c>
-      <c r="I30">
-        <v>0.4450550267288412</v>
-      </c>
-      <c r="J30">
-        <v>0.4450550267288412</v>
-      </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-      <c r="L30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M30">
-        <v>0.1514643333333333</v>
-      </c>
-      <c r="N30">
-        <v>0.454393</v>
-      </c>
-      <c r="O30">
-        <v>0.02941863695476679</v>
-      </c>
-      <c r="P30">
-        <v>0.02941863695476679</v>
-      </c>
-      <c r="Q30">
-        <v>0.08162852169900001</v>
-      </c>
-      <c r="R30">
-        <v>0.734656695291</v>
-      </c>
-      <c r="S30">
-        <v>0.01309291225622981</v>
-      </c>
-      <c r="T30">
-        <v>0.01309291225622981</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.538929</v>
-      </c>
-      <c r="H31">
-        <v>1.616787</v>
-      </c>
-      <c r="I31">
-        <v>0.4450550267288412</v>
-      </c>
-      <c r="J31">
-        <v>0.4450550267288412</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.6020886666666666</v>
-      </c>
-      <c r="N31">
-        <v>1.806266</v>
-      </c>
-      <c r="O31">
-        <v>0.1169425666718871</v>
-      </c>
-      <c r="P31">
-        <v>0.1169425666718871</v>
-      </c>
-      <c r="Q31">
-        <v>0.324483043038</v>
-      </c>
-      <c r="R31">
-        <v>2.920347387342</v>
-      </c>
-      <c r="S31">
-        <v>0.05204587713589599</v>
-      </c>
-      <c r="T31">
-        <v>0.05204587713589601</v>
+        <v>0.03475937266340264</v>
       </c>
     </row>
   </sheetData>
